--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS135-001 - Kepesertaan - Transaksi - Register Perjanjian Kerja Sama Standard No Kolektif 000002390.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS135-001 - Kepesertaan - Transaksi - Register Perjanjian Kerja Sama Standard No Kolektif 000002390.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF29E9FE-09CD-40A4-AC4C-2FEC42D2C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E643353-8288-4E8F-A478-C019EFCE405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="45" windowWidth="10380" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS135-001" sheetId="2" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
